--- a/SchoolPortal.Web/ExcelUpload/80027047.xlsx
+++ b/SchoolPortal.Web/ExcelUpload/80027047.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\source\repos\SchoolPortal\SchoolPortal.Web\ExcelUpload\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA49514-74F8-437D-9D36-77AB31F78FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4875" windowWidth="18915" windowHeight="5205"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="download (21)" sheetId="1" r:id="rId1"/>
@@ -31,15 +37,15 @@
     <t>BatchNumber</t>
   </si>
   <si>
-    <t>DMMM/SEC/0047</t>
+    <t>DMMM/SEC/03092</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -542,11 +548,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -600,6 +606,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -647,7 +656,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -680,9 +689,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -715,6 +741,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -890,11 +933,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +945,7 @@
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -924,2731 +967,2731 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>681686198191</v>
-      </c>
-      <c r="C3" s="2">
-        <v>578560</v>
+        <v>388716687629</v>
+      </c>
+      <c r="C3" s="5">
+        <v>787966</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>539005909832</v>
-      </c>
-      <c r="C4" s="2">
-        <v>783303</v>
+        <v>549153257883</v>
+      </c>
+      <c r="C4" s="5">
+        <v>488356</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>165346041399</v>
-      </c>
-      <c r="C5" s="2">
-        <v>724454</v>
+        <v>506838873730</v>
+      </c>
+      <c r="C5" s="5">
+        <v>445978</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>137770289154</v>
-      </c>
-      <c r="C6" s="2">
-        <v>771283</v>
+        <v>811013920145</v>
+      </c>
+      <c r="C6" s="5">
+        <v>902403</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>659687387599</v>
-      </c>
-      <c r="C7" s="2">
-        <v>702078</v>
+        <v>903160972941</v>
+      </c>
+      <c r="C7" s="5">
+        <v>947023</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>123791387362</v>
-      </c>
-      <c r="C8" s="2">
-        <v>817414</v>
+        <v>958499545212</v>
+      </c>
+      <c r="C8" s="5">
+        <v>202559</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>608698666379</v>
-      </c>
-      <c r="C9" s="2">
-        <v>421171</v>
+        <v>669908441915</v>
+      </c>
+      <c r="C9" s="5">
+        <v>753477</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>705658764441</v>
-      </c>
-      <c r="C10" s="2">
-        <v>649038</v>
+        <v>938681770553</v>
+      </c>
+      <c r="C10" s="5">
+        <v>645111</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>356524990572</v>
-      </c>
-      <c r="C11" s="2">
-        <v>751425</v>
+        <v>294696634773</v>
+      </c>
+      <c r="C11" s="5">
+        <v>271294</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>854984037976</v>
-      </c>
-      <c r="C12" s="2">
-        <v>673746</v>
+        <v>177093591158</v>
+      </c>
+      <c r="C12" s="5">
+        <v>184636</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>757798036401</v>
-      </c>
-      <c r="C13" s="2">
-        <v>253629</v>
+        <v>309611720643</v>
+      </c>
+      <c r="C13" s="5">
+        <v>884572</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>309443762204</v>
-      </c>
-      <c r="C14" s="2">
-        <v>332552</v>
+        <v>320848103296</v>
+      </c>
+      <c r="C14" s="5">
+        <v>141099</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>316329404859</v>
-      </c>
-      <c r="C15" s="2">
-        <v>470857</v>
+        <v>933774726435</v>
+      </c>
+      <c r="C15" s="5">
+        <v>939055</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>447212959382</v>
-      </c>
-      <c r="C16" s="2">
-        <v>137624</v>
+        <v>575794703130</v>
+      </c>
+      <c r="C16" s="5">
+        <v>230351</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>317487024384</v>
-      </c>
-      <c r="C17" s="2">
-        <v>582492</v>
+        <v>174853816710</v>
+      </c>
+      <c r="C17" s="5">
+        <v>136253</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>785655616683</v>
-      </c>
-      <c r="C18" s="2">
-        <v>861148</v>
+        <v>939458068432</v>
+      </c>
+      <c r="C18" s="5">
+        <v>541399</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>902758422262</v>
-      </c>
-      <c r="C19" s="2">
-        <v>636989</v>
+        <v>996345515827</v>
+      </c>
+      <c r="C19" s="5">
+        <v>374533</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>532188995989</v>
-      </c>
-      <c r="C20" s="2">
-        <v>940561</v>
+        <v>403942660617</v>
+      </c>
+      <c r="C20" s="5">
+        <v>984590</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>571378972182</v>
-      </c>
-      <c r="C21" s="2">
-        <v>937516</v>
+        <v>471715377398</v>
+      </c>
+      <c r="C21" s="5">
+        <v>108455</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>148627616069</v>
-      </c>
-      <c r="C22" s="2">
-        <v>594433</v>
+        <v>173806375439</v>
+      </c>
+      <c r="C22" s="5">
+        <v>918683</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>108082662853</v>
-      </c>
-      <c r="C23" s="2">
-        <v>512888</v>
+        <v>412373910850</v>
+      </c>
+      <c r="C23" s="5">
+        <v>688934</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>996497021986</v>
-      </c>
-      <c r="C24" s="2">
-        <v>132603</v>
+        <v>153773496465</v>
+      </c>
+      <c r="C24" s="5">
+        <v>600960</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>486650414060</v>
-      </c>
-      <c r="C25" s="2">
-        <v>839427</v>
+        <v>228160863103</v>
+      </c>
+      <c r="C25" s="5">
+        <v>579995</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>422693339373</v>
-      </c>
-      <c r="C26" s="2">
-        <v>255100</v>
+        <v>901492750692</v>
+      </c>
+      <c r="C26" s="5">
+        <v>249708</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>640540782660</v>
-      </c>
-      <c r="C27" s="2">
-        <v>682233</v>
+        <v>354930618943</v>
+      </c>
+      <c r="C27" s="5">
+        <v>567394</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>910966925747</v>
-      </c>
-      <c r="C28" s="2">
-        <v>707148</v>
+        <v>447302461810</v>
+      </c>
+      <c r="C28" s="5">
+        <v>887533</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>270105827260</v>
-      </c>
-      <c r="C29" s="2">
-        <v>959598</v>
+        <v>879771961309</v>
+      </c>
+      <c r="C29" s="5">
+        <v>154757</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>319121238924</v>
-      </c>
-      <c r="C30" s="2">
-        <v>742263</v>
+        <v>572555953438</v>
+      </c>
+      <c r="C30" s="5">
+        <v>963192</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>520819148757</v>
-      </c>
-      <c r="C31" s="2">
-        <v>313875</v>
+        <v>396810338086</v>
+      </c>
+      <c r="C31" s="5">
+        <v>892659</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>118886923473</v>
-      </c>
-      <c r="C32" s="2">
-        <v>210385</v>
+        <v>164660878556</v>
+      </c>
+      <c r="C32" s="5">
+        <v>120869</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>884171077276</v>
-      </c>
-      <c r="C33" s="2">
-        <v>413974</v>
+        <v>391336633540</v>
+      </c>
+      <c r="C33" s="5">
+        <v>780645</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>634679751766</v>
-      </c>
-      <c r="C34" s="2">
-        <v>345853</v>
+        <v>347983456379</v>
+      </c>
+      <c r="C34" s="5">
+        <v>323388</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>456841360525</v>
-      </c>
-      <c r="C35" s="2">
-        <v>756184</v>
+        <v>582553657509</v>
+      </c>
+      <c r="C35" s="5">
+        <v>156935</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>476270401141</v>
-      </c>
-      <c r="C36" s="2">
-        <v>710442</v>
+        <v>803184369487</v>
+      </c>
+      <c r="C36" s="5">
+        <v>108666</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>131271495079</v>
-      </c>
-      <c r="C37" s="2">
-        <v>131392</v>
+        <v>312505299883</v>
+      </c>
+      <c r="C37" s="5">
+        <v>671401</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>258573507545</v>
-      </c>
-      <c r="C38" s="2">
-        <v>446200</v>
+        <v>958826514873</v>
+      </c>
+      <c r="C38" s="5">
+        <v>393613</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>433345033989</v>
-      </c>
-      <c r="C39" s="2">
-        <v>367492</v>
+        <v>139392556688</v>
+      </c>
+      <c r="C39" s="5">
+        <v>841999</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>795891892070</v>
-      </c>
-      <c r="C40" s="2">
-        <v>225090</v>
+        <v>647764212288</v>
+      </c>
+      <c r="C40" s="5">
+        <v>156866</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>446426600891</v>
-      </c>
-      <c r="C41" s="2">
-        <v>476919</v>
+        <v>833758017902</v>
+      </c>
+      <c r="C41" s="5">
+        <v>982167</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>481242235043</v>
-      </c>
-      <c r="C42" s="2">
-        <v>930263</v>
+        <v>859924342884</v>
+      </c>
+      <c r="C42" s="5">
+        <v>817658</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>351597645949</v>
-      </c>
-      <c r="C43" s="2">
-        <v>535216</v>
+        <v>810995784034</v>
+      </c>
+      <c r="C43" s="5">
+        <v>198436</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>728345182598</v>
-      </c>
-      <c r="C44" s="2">
-        <v>631384</v>
+        <v>259640724519</v>
+      </c>
+      <c r="C44" s="5">
+        <v>106713</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>417332705305</v>
-      </c>
-      <c r="C45" s="2">
-        <v>105216</v>
+        <v>498333133524</v>
+      </c>
+      <c r="C45" s="5">
+        <v>622837</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>147430548979</v>
-      </c>
-      <c r="C46" s="2">
-        <v>342497</v>
+        <v>261192950076</v>
+      </c>
+      <c r="C46" s="5">
+        <v>622012</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>871953739725</v>
-      </c>
-      <c r="C47" s="2">
-        <v>479029</v>
+        <v>455991095610</v>
+      </c>
+      <c r="C47" s="5">
+        <v>899530</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>183715880934</v>
-      </c>
-      <c r="C48" s="2">
-        <v>763460</v>
+        <v>302066848288</v>
+      </c>
+      <c r="C48" s="5">
+        <v>516448</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>761924682074</v>
-      </c>
-      <c r="C49" s="2">
-        <v>929952</v>
+        <v>560682101436</v>
+      </c>
+      <c r="C49" s="5">
+        <v>530542</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>537977305026</v>
-      </c>
-      <c r="C50" s="2">
-        <v>681973</v>
+        <v>645799182656</v>
+      </c>
+      <c r="C50" s="5">
+        <v>413199</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>409521424868</v>
-      </c>
-      <c r="C51" s="2">
-        <v>100397</v>
+        <v>383127781741</v>
+      </c>
+      <c r="C51" s="5">
+        <v>160139</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>569690323700</v>
-      </c>
-      <c r="C52" s="2">
-        <v>542924</v>
+        <v>197653727232</v>
+      </c>
+      <c r="C52" s="5">
+        <v>108753</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>590316021624</v>
-      </c>
-      <c r="C53" s="2">
-        <v>106789</v>
+        <v>248143112868</v>
+      </c>
+      <c r="C53" s="5">
+        <v>988085</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>113617341553</v>
-      </c>
-      <c r="C54" s="2">
-        <v>874291</v>
+        <v>434525150077</v>
+      </c>
+      <c r="C54" s="5">
+        <v>812488</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>559315148070</v>
-      </c>
-      <c r="C55" s="2">
-        <v>468886</v>
+        <v>310370501741</v>
+      </c>
+      <c r="C55" s="5">
+        <v>714571</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>102095666389</v>
-      </c>
-      <c r="C56" s="2">
-        <v>428300</v>
+        <v>576768416714</v>
+      </c>
+      <c r="C56" s="5">
+        <v>104563</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>821292306027</v>
-      </c>
-      <c r="C57" s="2">
-        <v>517536</v>
+        <v>662721983466</v>
+      </c>
+      <c r="C57" s="5">
+        <v>240965</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>877335685248</v>
-      </c>
-      <c r="C58" s="2">
-        <v>291075</v>
+        <v>209107308746</v>
+      </c>
+      <c r="C58" s="5">
+        <v>128548</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>940337361740</v>
-      </c>
-      <c r="C59" s="2">
-        <v>804535</v>
+        <v>451410527551</v>
+      </c>
+      <c r="C59" s="5">
+        <v>798877</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>895946307525</v>
-      </c>
-      <c r="C60" s="2">
-        <v>980811</v>
+        <v>993844181296</v>
+      </c>
+      <c r="C60" s="5">
+        <v>825343</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>149827506929</v>
-      </c>
-      <c r="C61" s="2">
-        <v>722148</v>
+        <v>283525954133</v>
+      </c>
+      <c r="C61" s="5">
+        <v>137136</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>899108032463</v>
-      </c>
-      <c r="C62" s="2">
-        <v>144202</v>
+        <v>344465983773</v>
+      </c>
+      <c r="C62" s="5">
+        <v>831111</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>578334450525</v>
-      </c>
-      <c r="C63" s="2">
-        <v>126532</v>
+        <v>874745614303</v>
+      </c>
+      <c r="C63" s="5">
+        <v>880207</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>805682991075</v>
-      </c>
-      <c r="C64" s="2">
-        <v>166587</v>
+        <v>283889727334</v>
+      </c>
+      <c r="C64" s="5">
+        <v>151328</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>715085512360</v>
-      </c>
-      <c r="C65" s="2">
-        <v>344889</v>
+        <v>908183732959</v>
+      </c>
+      <c r="C65" s="5">
+        <v>547031</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>595791547371</v>
-      </c>
-      <c r="C66" s="2">
-        <v>917888</v>
+        <v>687634691916</v>
+      </c>
+      <c r="C66" s="5">
+        <v>369197</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>542626241475</v>
-      </c>
-      <c r="C67" s="2">
-        <v>635441</v>
+        <v>197830463852</v>
+      </c>
+      <c r="C67" s="5">
+        <v>816161</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>567994253974</v>
-      </c>
-      <c r="C68" s="2">
-        <v>917184</v>
+        <v>910714723128</v>
+      </c>
+      <c r="C68" s="5">
+        <v>410486</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>534797940652</v>
-      </c>
-      <c r="C69" s="2">
-        <v>423762</v>
+        <v>416535627757</v>
+      </c>
+      <c r="C69" s="5">
+        <v>142866</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>316027933879</v>
-      </c>
-      <c r="C70" s="2">
-        <v>521580</v>
+        <v>823778584983</v>
+      </c>
+      <c r="C70" s="5">
+        <v>411335</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>153532418960</v>
-      </c>
-      <c r="C71" s="2">
-        <v>347544</v>
+        <v>104267152866</v>
+      </c>
+      <c r="C71" s="5">
+        <v>904840</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>996367952785</v>
-      </c>
-      <c r="C72" s="2">
-        <v>978172</v>
+        <v>253948511208</v>
+      </c>
+      <c r="C72" s="5">
+        <v>643167</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>269028661432</v>
-      </c>
-      <c r="C73" s="2">
-        <v>616441</v>
+        <v>302219110682</v>
+      </c>
+      <c r="C73" s="5">
+        <v>642799</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>445615246168</v>
-      </c>
-      <c r="C74" s="2">
-        <v>825765</v>
+        <v>850857367670</v>
+      </c>
+      <c r="C74" s="5">
+        <v>235939</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>908349327700</v>
-      </c>
-      <c r="C75" s="2">
-        <v>777637</v>
+        <v>863478410460</v>
+      </c>
+      <c r="C75" s="5">
+        <v>839881</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>647841135342</v>
-      </c>
-      <c r="C76" s="2">
-        <v>998801</v>
+        <v>699738908885</v>
+      </c>
+      <c r="C76" s="5">
+        <v>310251</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>117413350436</v>
-      </c>
-      <c r="C77" s="2">
-        <v>457716</v>
+        <v>729359905529</v>
+      </c>
+      <c r="C77" s="5">
+        <v>348317</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>721158753019</v>
-      </c>
-      <c r="C78" s="2">
-        <v>180604</v>
+        <v>370624318891</v>
+      </c>
+      <c r="C78" s="5">
+        <v>943629</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>766685909017</v>
-      </c>
-      <c r="C79" s="2">
-        <v>107751</v>
+        <v>430396841015</v>
+      </c>
+      <c r="C79" s="5">
+        <v>393843</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>389472245886</v>
-      </c>
-      <c r="C80" s="2">
-        <v>204489</v>
+        <v>199420076422</v>
+      </c>
+      <c r="C80" s="5">
+        <v>714189</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>521834938797</v>
-      </c>
-      <c r="C81" s="2">
-        <v>100634</v>
+        <v>517328500057</v>
+      </c>
+      <c r="C81" s="5">
+        <v>171922</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>247058654785</v>
-      </c>
-      <c r="C82" s="2">
-        <v>367150</v>
+        <v>157738022114</v>
+      </c>
+      <c r="C82" s="5">
+        <v>538792</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>844740368819</v>
-      </c>
-      <c r="C83" s="2">
-        <v>655683</v>
+        <v>488434712630</v>
+      </c>
+      <c r="C83" s="5">
+        <v>664319</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>143301375743</v>
-      </c>
-      <c r="C84" s="2">
-        <v>471124</v>
+        <v>276903475764</v>
+      </c>
+      <c r="C84" s="5">
+        <v>978987</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>868711709449</v>
-      </c>
-      <c r="C85" s="2">
-        <v>566908</v>
+        <v>768427871991</v>
+      </c>
+      <c r="C85" s="5">
+        <v>613579</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>603336422985</v>
-      </c>
-      <c r="C86" s="2">
-        <v>885685</v>
+        <v>909127767621</v>
+      </c>
+      <c r="C86" s="5">
+        <v>172586</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>238527834992</v>
-      </c>
-      <c r="C87" s="2">
-        <v>688178</v>
+        <v>973659773345</v>
+      </c>
+      <c r="C87" s="5">
+        <v>251150</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>702751928802</v>
-      </c>
-      <c r="C88" s="2">
-        <v>113360</v>
+        <v>880765462704</v>
+      </c>
+      <c r="C88" s="5">
+        <v>123205</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>521716855476</v>
-      </c>
-      <c r="C89" s="2">
-        <v>970986</v>
+        <v>624953742989</v>
+      </c>
+      <c r="C89" s="5">
+        <v>754150</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>131019948577</v>
-      </c>
-      <c r="C90" s="2">
-        <v>965794</v>
+        <v>394396739730</v>
+      </c>
+      <c r="C90" s="5">
+        <v>174863</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>972930378268</v>
-      </c>
-      <c r="C91" s="2">
-        <v>106780</v>
+        <v>123249180207</v>
+      </c>
+      <c r="C91" s="5">
+        <v>174166</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>512038597144</v>
-      </c>
-      <c r="C92" s="2">
-        <v>927518</v>
+        <v>885822752903</v>
+      </c>
+      <c r="C92" s="5">
+        <v>901218</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>373571756470</v>
-      </c>
-      <c r="C93" s="2">
-        <v>106214</v>
+        <v>833516029564</v>
+      </c>
+      <c r="C93" s="5">
+        <v>165922</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>906565028199</v>
-      </c>
-      <c r="C94" s="2">
-        <v>540532</v>
+        <v>595148500798</v>
+      </c>
+      <c r="C94" s="5">
+        <v>276070</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>284091750292</v>
-      </c>
-      <c r="C95" s="2">
-        <v>785927</v>
+        <v>824065546889</v>
+      </c>
+      <c r="C95" s="5">
+        <v>574734</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>109447299088</v>
-      </c>
-      <c r="C96" s="2">
-        <v>536706</v>
+        <v>115451045854</v>
+      </c>
+      <c r="C96" s="5">
+        <v>779142</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>609758093865</v>
-      </c>
-      <c r="C97" s="2">
-        <v>238135</v>
+        <v>462484306871</v>
+      </c>
+      <c r="C97" s="5">
+        <v>425664</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>260903611435</v>
-      </c>
-      <c r="C98" s="2">
-        <v>654556</v>
+        <v>828044052156</v>
+      </c>
+      <c r="C98" s="5">
+        <v>897438</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>749158949474</v>
-      </c>
-      <c r="C99" s="2">
-        <v>956284</v>
+        <v>197316951676</v>
+      </c>
+      <c r="C99" s="5">
+        <v>985032</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>382234679247</v>
-      </c>
-      <c r="C100" s="2">
-        <v>118085</v>
+        <v>617661942084</v>
+      </c>
+      <c r="C100" s="5">
+        <v>378902</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>693571695915</v>
-      </c>
-      <c r="C101" s="2">
-        <v>500049</v>
+        <v>210104255104</v>
+      </c>
+      <c r="C101" s="5">
+        <v>796616</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>505154660672</v>
-      </c>
-      <c r="C102" s="2">
-        <v>518546</v>
+        <v>541099050334</v>
+      </c>
+      <c r="C102" s="5">
+        <v>107410</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>101</v>
       </c>
       <c r="B103" s="5">
-        <v>860945560439</v>
-      </c>
-      <c r="C103" s="2">
-        <v>520388</v>
+        <v>276172336320</v>
+      </c>
+      <c r="C103" s="5">
+        <v>849301</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>102</v>
       </c>
       <c r="B104" s="5">
-        <v>798248145635</v>
-      </c>
-      <c r="C104" s="2">
-        <v>121413</v>
+        <v>424386197899</v>
+      </c>
+      <c r="C104" s="5">
+        <v>633255</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>103</v>
       </c>
       <c r="B105" s="5">
-        <v>766531163718</v>
-      </c>
-      <c r="C105" s="2">
-        <v>123979</v>
+        <v>318363586123</v>
+      </c>
+      <c r="C105" s="5">
+        <v>724508</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>104</v>
       </c>
       <c r="B106" s="5">
-        <v>414221642266</v>
-      </c>
-      <c r="C106" s="2">
-        <v>105251</v>
+        <v>972985099989</v>
+      </c>
+      <c r="C106" s="5">
+        <v>294690</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>105</v>
       </c>
       <c r="B107" s="5">
-        <v>242622627990</v>
-      </c>
-      <c r="C107" s="2">
-        <v>976133</v>
+        <v>939852750366</v>
+      </c>
+      <c r="C107" s="5">
+        <v>245848</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>106</v>
       </c>
       <c r="B108" s="5">
-        <v>460899724374</v>
-      </c>
-      <c r="C108" s="2">
-        <v>499230</v>
+        <v>869360056179</v>
+      </c>
+      <c r="C108" s="5">
+        <v>761904</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>107</v>
       </c>
       <c r="B109" s="5">
-        <v>123434108274</v>
-      </c>
-      <c r="C109" s="2">
-        <v>382739</v>
+        <v>323824918514</v>
+      </c>
+      <c r="C109" s="5">
+        <v>445373</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>108</v>
       </c>
       <c r="B110" s="5">
-        <v>573767909116</v>
-      </c>
-      <c r="C110" s="2">
-        <v>109621</v>
+        <v>843221267147</v>
+      </c>
+      <c r="C110" s="5">
+        <v>455055</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>109</v>
       </c>
       <c r="B111" s="5">
-        <v>771172937831</v>
-      </c>
-      <c r="C111" s="2">
-        <v>326975</v>
+        <v>575603377808</v>
+      </c>
+      <c r="C111" s="5">
+        <v>206097</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>110</v>
       </c>
       <c r="B112" s="5">
-        <v>885453176631</v>
-      </c>
-      <c r="C112" s="2">
-        <v>936873</v>
+        <v>487685899012</v>
+      </c>
+      <c r="C112" s="5">
+        <v>587008</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>111</v>
       </c>
       <c r="B113" s="5">
-        <v>206072937793</v>
-      </c>
-      <c r="C113" s="2">
-        <v>473866</v>
+        <v>821886882569</v>
+      </c>
+      <c r="C113" s="5">
+        <v>409527</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>112</v>
       </c>
       <c r="B114" s="5">
-        <v>609591388893</v>
-      </c>
-      <c r="C114" s="2">
-        <v>564282</v>
+        <v>684404374885</v>
+      </c>
+      <c r="C114" s="5">
+        <v>285300</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>113</v>
       </c>
       <c r="B115" s="5">
-        <v>637338036596</v>
-      </c>
-      <c r="C115" s="2">
-        <v>136776</v>
+        <v>647712493151</v>
+      </c>
+      <c r="C115" s="5">
+        <v>498046</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>114</v>
       </c>
       <c r="B116" s="5">
-        <v>876236763260</v>
-      </c>
-      <c r="C116" s="2">
-        <v>569283</v>
+        <v>848840138805</v>
+      </c>
+      <c r="C116" s="5">
+        <v>299129</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>115</v>
       </c>
       <c r="B117" s="5">
-        <v>741927149585</v>
-      </c>
-      <c r="C117" s="2">
-        <v>535939</v>
+        <v>220710711656</v>
+      </c>
+      <c r="C117" s="5">
+        <v>109793</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>116</v>
       </c>
       <c r="B118" s="5">
-        <v>367037036161</v>
-      </c>
-      <c r="C118" s="2">
-        <v>473643</v>
+        <v>736070074018</v>
+      </c>
+      <c r="C118" s="5">
+        <v>434250</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>117</v>
       </c>
       <c r="B119" s="5">
-        <v>110256480104</v>
-      </c>
-      <c r="C119" s="2">
-        <v>533830</v>
+        <v>146590779604</v>
+      </c>
+      <c r="C119" s="5">
+        <v>109260</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>118</v>
       </c>
       <c r="B120" s="5">
-        <v>958361771404</v>
-      </c>
-      <c r="C120" s="2">
-        <v>735473</v>
+        <v>420976728863</v>
+      </c>
+      <c r="C120" s="5">
+        <v>309648</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>119</v>
       </c>
       <c r="B121" s="5">
-        <v>667506964257</v>
-      </c>
-      <c r="C121" s="2">
-        <v>104733</v>
+        <v>282166059260</v>
+      </c>
+      <c r="C121" s="5">
+        <v>776737</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>120</v>
       </c>
       <c r="B122" s="5">
-        <v>522800688875</v>
-      </c>
-      <c r="C122" s="2">
-        <v>777738</v>
+        <v>961741670483</v>
+      </c>
+      <c r="C122" s="5">
+        <v>270752</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>121</v>
       </c>
       <c r="B123" s="5">
-        <v>810572333546</v>
-      </c>
-      <c r="C123" s="2">
-        <v>269545</v>
+        <v>988669517445</v>
+      </c>
+      <c r="C123" s="5">
+        <v>411752</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>122</v>
       </c>
       <c r="B124" s="5">
-        <v>602416347061</v>
-      </c>
-      <c r="C124" s="2">
-        <v>415520</v>
+        <v>510963499318</v>
+      </c>
+      <c r="C124" s="5">
+        <v>103733</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>123</v>
       </c>
       <c r="B125" s="5">
-        <v>591331749499</v>
-      </c>
-      <c r="C125" s="2">
-        <v>719349</v>
+        <v>195484329572</v>
+      </c>
+      <c r="C125" s="5">
+        <v>246889</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>124</v>
       </c>
       <c r="B126" s="5">
-        <v>325567440281</v>
-      </c>
-      <c r="C126" s="2">
-        <v>398242</v>
+        <v>484161664398</v>
+      </c>
+      <c r="C126" s="5">
+        <v>575757</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>125</v>
       </c>
       <c r="B127" s="5">
-        <v>454023306004</v>
-      </c>
-      <c r="C127" s="2">
-        <v>725396</v>
+        <v>276841097175</v>
+      </c>
+      <c r="C127" s="5">
+        <v>146158</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>126</v>
       </c>
       <c r="B128" s="5">
-        <v>773691186576</v>
-      </c>
-      <c r="C128" s="2">
-        <v>224162</v>
+        <v>530865340508</v>
+      </c>
+      <c r="C128" s="5">
+        <v>938372</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>127</v>
       </c>
       <c r="B129" s="5">
-        <v>852375727078</v>
-      </c>
-      <c r="C129" s="2">
-        <v>160609</v>
+        <v>966715784262</v>
+      </c>
+      <c r="C129" s="5">
+        <v>104617</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>128</v>
       </c>
       <c r="B130" s="5">
-        <v>355860630263</v>
-      </c>
-      <c r="C130" s="2">
-        <v>715411</v>
+        <v>958948834780</v>
+      </c>
+      <c r="C130" s="5">
+        <v>787690</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>129</v>
       </c>
       <c r="B131" s="5">
-        <v>968752557397</v>
-      </c>
-      <c r="C131" s="2">
-        <v>919307</v>
+        <v>209992235159</v>
+      </c>
+      <c r="C131" s="5">
+        <v>797149</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>130</v>
       </c>
       <c r="B132" s="5">
-        <v>701716344665</v>
-      </c>
-      <c r="C132" s="2">
-        <v>565755</v>
+        <v>795260284932</v>
+      </c>
+      <c r="C132" s="5">
+        <v>806552</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>131</v>
       </c>
       <c r="B133" s="5">
-        <v>174795430235</v>
-      </c>
-      <c r="C133" s="2">
-        <v>389332</v>
+        <v>506441311681</v>
+      </c>
+      <c r="C133" s="5">
+        <v>380105</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>132</v>
       </c>
       <c r="B134" s="5">
-        <v>191653444987</v>
-      </c>
-      <c r="C134" s="2">
-        <v>324794</v>
+        <v>183185815291</v>
+      </c>
+      <c r="C134" s="5">
+        <v>106165</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>133</v>
       </c>
       <c r="B135" s="5">
-        <v>318579822508</v>
-      </c>
-      <c r="C135" s="2">
-        <v>945039</v>
+        <v>808793065049</v>
+      </c>
+      <c r="C135" s="5">
+        <v>550816</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>134</v>
       </c>
       <c r="B136" s="5">
-        <v>580980198263</v>
-      </c>
-      <c r="C136" s="2">
-        <v>152232</v>
+        <v>821129097520</v>
+      </c>
+      <c r="C136" s="5">
+        <v>164845</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>135</v>
       </c>
       <c r="B137" s="5">
-        <v>621613316993</v>
-      </c>
-      <c r="C137" s="2">
-        <v>549002</v>
+        <v>401212064270</v>
+      </c>
+      <c r="C137" s="5">
+        <v>507987</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>136</v>
       </c>
       <c r="B138" s="5">
-        <v>351136876899</v>
-      </c>
-      <c r="C138" s="2">
-        <v>127792</v>
+        <v>944469308455</v>
+      </c>
+      <c r="C138" s="5">
+        <v>220063</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>137</v>
       </c>
       <c r="B139" s="5">
-        <v>897481803735</v>
-      </c>
-      <c r="C139" s="2">
-        <v>644864</v>
+        <v>433182059989</v>
+      </c>
+      <c r="C139" s="5">
+        <v>706469</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>138</v>
       </c>
       <c r="B140" s="5">
-        <v>989277510899</v>
-      </c>
-      <c r="C140" s="2">
-        <v>837829</v>
+        <v>997216752263</v>
+      </c>
+      <c r="C140" s="5">
+        <v>554402</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>139</v>
       </c>
       <c r="B141" s="5">
-        <v>283589315267</v>
-      </c>
-      <c r="C141" s="2">
-        <v>361934</v>
+        <v>882449169123</v>
+      </c>
+      <c r="C141" s="5">
+        <v>880835</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>140</v>
       </c>
       <c r="B142" s="5">
-        <v>502531090520</v>
-      </c>
-      <c r="C142" s="2">
-        <v>678344</v>
+        <v>104598228403</v>
+      </c>
+      <c r="C142" s="5">
+        <v>994396</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>141</v>
       </c>
       <c r="B143" s="5">
-        <v>758614945113</v>
-      </c>
-      <c r="C143" s="2">
-        <v>839054</v>
+        <v>479234305434</v>
+      </c>
+      <c r="C143" s="5">
+        <v>542973</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>142</v>
       </c>
       <c r="B144" s="5">
-        <v>660732473554</v>
-      </c>
-      <c r="C144" s="2">
-        <v>151033</v>
+        <v>959593460411</v>
+      </c>
+      <c r="C144" s="5">
+        <v>455282</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>143</v>
       </c>
       <c r="B145" s="5">
-        <v>218681551618</v>
-      </c>
-      <c r="C145" s="2">
-        <v>103358</v>
+        <v>785065739781</v>
+      </c>
+      <c r="C145" s="5">
+        <v>403897</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>144</v>
       </c>
       <c r="B146" s="5">
-        <v>486061576515</v>
-      </c>
-      <c r="C146" s="2">
-        <v>485617</v>
+        <v>557453622137</v>
+      </c>
+      <c r="C146" s="5">
+        <v>644863</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>145</v>
       </c>
       <c r="B147" s="5">
-        <v>384474253973</v>
-      </c>
-      <c r="C147" s="2">
-        <v>791236</v>
+        <v>617634254330</v>
+      </c>
+      <c r="C147" s="5">
+        <v>106771</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>146</v>
       </c>
       <c r="B148" s="5">
-        <v>975130880706</v>
-      </c>
-      <c r="C148" s="2">
-        <v>679975</v>
+        <v>796799661031</v>
+      </c>
+      <c r="C148" s="5">
+        <v>922188</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>147</v>
       </c>
       <c r="B149" s="5">
-        <v>222602090436</v>
-      </c>
-      <c r="C149" s="2">
-        <v>118644</v>
+        <v>777220596921</v>
+      </c>
+      <c r="C149" s="5">
+        <v>326636</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>148</v>
       </c>
       <c r="B150" s="5">
-        <v>907373830633</v>
-      </c>
-      <c r="C150" s="2">
-        <v>520283</v>
+        <v>766153129174</v>
+      </c>
+      <c r="C150" s="5">
+        <v>494924</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>149</v>
       </c>
       <c r="B151" s="5">
-        <v>577453804937</v>
-      </c>
-      <c r="C151" s="2">
-        <v>899850</v>
+        <v>718173645771</v>
+      </c>
+      <c r="C151" s="5">
+        <v>108588</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>150</v>
       </c>
       <c r="B152" s="5">
-        <v>197693429048</v>
-      </c>
-      <c r="C152" s="2">
-        <v>986005</v>
+        <v>141285291799</v>
+      </c>
+      <c r="C152" s="5">
+        <v>493413</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>151</v>
       </c>
       <c r="B153" s="5">
-        <v>937296029291</v>
-      </c>
-      <c r="C153" s="2">
-        <v>193863</v>
+        <v>918729323390</v>
+      </c>
+      <c r="C153" s="5">
+        <v>400083</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>152</v>
       </c>
       <c r="B154" s="5">
-        <v>676427906228</v>
-      </c>
-      <c r="C154" s="2">
-        <v>184183</v>
+        <v>401438540966</v>
+      </c>
+      <c r="C154" s="5">
+        <v>663396</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>153</v>
       </c>
       <c r="B155" s="5">
-        <v>957742423405</v>
-      </c>
-      <c r="C155" s="2">
-        <v>214756</v>
+        <v>142269180688</v>
+      </c>
+      <c r="C155" s="5">
+        <v>336435</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>154</v>
       </c>
       <c r="B156" s="5">
-        <v>446225590746</v>
-      </c>
-      <c r="C156" s="2">
-        <v>109237</v>
+        <v>491037468189</v>
+      </c>
+      <c r="C156" s="5">
+        <v>915931</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>155</v>
       </c>
       <c r="B157" s="5">
-        <v>306647819144</v>
-      </c>
-      <c r="C157" s="2">
-        <v>438437</v>
+        <v>655409707062</v>
+      </c>
+      <c r="C157" s="5">
+        <v>124170</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>156</v>
       </c>
       <c r="B158" s="5">
-        <v>399282420240</v>
-      </c>
-      <c r="C158" s="2">
-        <v>240335</v>
+        <v>519337858315</v>
+      </c>
+      <c r="C158" s="5">
+        <v>676583</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>157</v>
       </c>
       <c r="B159" s="5">
-        <v>484398951048</v>
-      </c>
-      <c r="C159" s="2">
-        <v>104388</v>
+        <v>933187624874</v>
+      </c>
+      <c r="C159" s="5">
+        <v>106792</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>158</v>
       </c>
       <c r="B160" s="5">
-        <v>709614345203</v>
-      </c>
-      <c r="C160" s="2">
-        <v>102431</v>
+        <v>675028987078</v>
+      </c>
+      <c r="C160" s="5">
+        <v>672481</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>159</v>
       </c>
       <c r="B161" s="5">
-        <v>924643820256</v>
-      </c>
-      <c r="C161" s="2">
-        <v>182170</v>
+        <v>947540887141</v>
+      </c>
+      <c r="C161" s="5">
+        <v>372595</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>160</v>
       </c>
       <c r="B162" s="5">
-        <v>731044637380</v>
-      </c>
-      <c r="C162" s="2">
-        <v>869107</v>
+        <v>844228918126</v>
+      </c>
+      <c r="C162" s="5">
+        <v>901359</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>161</v>
       </c>
       <c r="B163" s="5">
-        <v>146094313891</v>
-      </c>
-      <c r="C163" s="2">
-        <v>316274</v>
+        <v>364926943725</v>
+      </c>
+      <c r="C163" s="5">
+        <v>950078</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>162</v>
       </c>
       <c r="B164" s="5">
-        <v>533183933950</v>
-      </c>
-      <c r="C164" s="2">
-        <v>718276</v>
+        <v>971382552745</v>
+      </c>
+      <c r="C164" s="5">
+        <v>839858</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>163</v>
       </c>
       <c r="B165" s="5">
-        <v>142546994678</v>
-      </c>
-      <c r="C165" s="2">
-        <v>398041</v>
+        <v>356496921906</v>
+      </c>
+      <c r="C165" s="5">
+        <v>902650</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>164</v>
       </c>
       <c r="B166" s="5">
-        <v>537236862600</v>
-      </c>
-      <c r="C166" s="2">
-        <v>508879</v>
+        <v>422399798605</v>
+      </c>
+      <c r="C166" s="5">
+        <v>186739</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>165</v>
       </c>
       <c r="B167" s="5">
-        <v>976266207302</v>
-      </c>
-      <c r="C167" s="2">
-        <v>443708</v>
+        <v>478571089673</v>
+      </c>
+      <c r="C167" s="5">
+        <v>102421</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>166</v>
       </c>
       <c r="B168" s="5">
-        <v>402268452292</v>
-      </c>
-      <c r="C168" s="2">
-        <v>395926</v>
+        <v>357418806459</v>
+      </c>
+      <c r="C168" s="5">
+        <v>752626</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>167</v>
       </c>
       <c r="B169" s="5">
-        <v>522227384393</v>
-      </c>
-      <c r="C169" s="2">
-        <v>782872</v>
+        <v>901188506233</v>
+      </c>
+      <c r="C169" s="5">
+        <v>501787</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>168</v>
       </c>
       <c r="B170" s="5">
-        <v>663372816361</v>
-      </c>
-      <c r="C170" s="2">
-        <v>108693</v>
+        <v>615453659937</v>
+      </c>
+      <c r="C170" s="5">
+        <v>137786</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>169</v>
       </c>
       <c r="B171" s="5">
-        <v>133201454362</v>
-      </c>
-      <c r="C171" s="2">
-        <v>568229</v>
+        <v>627875891341</v>
+      </c>
+      <c r="C171" s="5">
+        <v>254264</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>170</v>
       </c>
       <c r="B172" s="5">
-        <v>702687844496</v>
-      </c>
-      <c r="C172" s="2">
-        <v>785376</v>
+        <v>105255988010</v>
+      </c>
+      <c r="C172" s="5">
+        <v>100713</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>171</v>
       </c>
       <c r="B173" s="5">
-        <v>601890110225</v>
-      </c>
-      <c r="C173" s="2">
-        <v>104972</v>
+        <v>394941495915</v>
+      </c>
+      <c r="C173" s="5">
+        <v>729295</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>172</v>
       </c>
       <c r="B174" s="5">
-        <v>309512905921</v>
-      </c>
-      <c r="C174" s="2">
-        <v>732156</v>
+        <v>707578298034</v>
+      </c>
+      <c r="C174" s="5">
+        <v>522381</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>173</v>
       </c>
       <c r="B175" s="5">
-        <v>878016311619</v>
-      </c>
-      <c r="C175" s="2">
-        <v>717658</v>
+        <v>624839398370</v>
+      </c>
+      <c r="C175" s="5">
+        <v>689017</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>174</v>
       </c>
       <c r="B176" s="5">
-        <v>427523141460</v>
-      </c>
-      <c r="C176" s="2">
-        <v>217678</v>
+        <v>313373856858</v>
+      </c>
+      <c r="C176" s="5">
+        <v>253297</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>175</v>
       </c>
       <c r="B177" s="5">
-        <v>763989887090</v>
-      </c>
-      <c r="C177" s="2">
-        <v>859839</v>
+        <v>319143258649</v>
+      </c>
+      <c r="C177" s="5">
+        <v>299621</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>176</v>
       </c>
       <c r="B178" s="5">
-        <v>995775174487</v>
-      </c>
-      <c r="C178" s="2">
-        <v>108364</v>
+        <v>638512729033</v>
+      </c>
+      <c r="C178" s="5">
+        <v>344724</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>177</v>
       </c>
       <c r="B179" s="5">
-        <v>568877397836</v>
-      </c>
-      <c r="C179" s="2">
-        <v>107972</v>
+        <v>795199695879</v>
+      </c>
+      <c r="C179" s="5">
+        <v>175593</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>178</v>
       </c>
       <c r="B180" s="5">
-        <v>180792881586</v>
-      </c>
-      <c r="C180" s="2">
-        <v>819921</v>
+        <v>337868411251</v>
+      </c>
+      <c r="C180" s="5">
+        <v>104247</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>179</v>
       </c>
       <c r="B181" s="5">
-        <v>552411675710</v>
-      </c>
-      <c r="C181" s="2">
-        <v>800669</v>
+        <v>717659262343</v>
+      </c>
+      <c r="C181" s="5">
+        <v>103418</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>180</v>
       </c>
       <c r="B182" s="5">
-        <v>800132073369</v>
-      </c>
-      <c r="C182" s="2">
-        <v>909629</v>
+        <v>143568905137</v>
+      </c>
+      <c r="C182" s="5">
+        <v>129315</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>181</v>
       </c>
       <c r="B183" s="5">
-        <v>942098927192</v>
-      </c>
-      <c r="C183" s="2">
-        <v>860430</v>
+        <v>445225738196</v>
+      </c>
+      <c r="C183" s="5">
+        <v>347525</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>182</v>
       </c>
       <c r="B184" s="5">
-        <v>970593193998</v>
-      </c>
-      <c r="C184" s="2">
-        <v>148116</v>
+        <v>446549972262</v>
+      </c>
+      <c r="C184" s="5">
+        <v>985979</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>183</v>
       </c>
       <c r="B185" s="5">
-        <v>757993072159</v>
-      </c>
-      <c r="C185" s="2">
-        <v>716161</v>
+        <v>165599896184</v>
+      </c>
+      <c r="C185" s="5">
+        <v>462988</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>184</v>
       </c>
       <c r="B186" s="5">
-        <v>161561313486</v>
-      </c>
-      <c r="C186" s="2">
-        <v>377299</v>
+        <v>160088479128</v>
+      </c>
+      <c r="C186" s="5">
+        <v>244178</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>185</v>
       </c>
       <c r="B187" s="5">
-        <v>684157388138</v>
-      </c>
-      <c r="C187" s="2">
-        <v>101192</v>
+        <v>772101277379</v>
+      </c>
+      <c r="C187" s="5">
+        <v>346562</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>186</v>
       </c>
       <c r="B188" s="5">
-        <v>165809298803</v>
-      </c>
-      <c r="C188" s="2">
-        <v>573604</v>
+        <v>517318659703</v>
+      </c>
+      <c r="C188" s="5">
+        <v>109417</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>187</v>
       </c>
       <c r="B189" s="5">
-        <v>748829507152</v>
-      </c>
-      <c r="C189" s="2">
-        <v>220419</v>
+        <v>876951913292</v>
+      </c>
+      <c r="C189" s="5">
+        <v>686054</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>188</v>
       </c>
       <c r="B190" s="5">
-        <v>936194064997</v>
-      </c>
-      <c r="C190" s="2">
-        <v>399922</v>
+        <v>792552154880</v>
+      </c>
+      <c r="C190" s="5">
+        <v>739428</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>189</v>
       </c>
       <c r="B191" s="5">
-        <v>318945073205</v>
-      </c>
-      <c r="C191" s="2">
-        <v>326887</v>
+        <v>674041404237</v>
+      </c>
+      <c r="C191" s="5">
+        <v>802795</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>190</v>
       </c>
       <c r="B192" s="5">
-        <v>107670583812</v>
-      </c>
-      <c r="C192" s="2">
-        <v>185596</v>
+        <v>831965037543</v>
+      </c>
+      <c r="C192" s="5">
+        <v>789042</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>191</v>
       </c>
       <c r="B193" s="5">
-        <v>169309568205</v>
-      </c>
-      <c r="C193" s="2">
-        <v>104267</v>
+        <v>334263657841</v>
+      </c>
+      <c r="C193" s="5">
+        <v>600066</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>192</v>
       </c>
       <c r="B194" s="5">
-        <v>391823095452</v>
-      </c>
-      <c r="C194" s="2">
-        <v>579336</v>
+        <v>810198492282</v>
+      </c>
+      <c r="C194" s="5">
+        <v>967625</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>193</v>
       </c>
       <c r="B195" s="5">
-        <v>912086055107</v>
-      </c>
-      <c r="C195" s="2">
-        <v>146860</v>
+        <v>315614464421</v>
+      </c>
+      <c r="C195" s="5">
+        <v>102512</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>194</v>
       </c>
       <c r="B196" s="5">
-        <v>960170467366</v>
-      </c>
-      <c r="C196" s="2">
-        <v>260262</v>
+        <v>545964284123</v>
+      </c>
+      <c r="C196" s="5">
+        <v>623019</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>195</v>
       </c>
       <c r="B197" s="5">
-        <v>898852134076</v>
-      </c>
-      <c r="C197" s="2">
-        <v>683789</v>
+        <v>284347335009</v>
+      </c>
+      <c r="C197" s="5">
+        <v>161277</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>5</v>
@@ -3659,66 +3702,66 @@
         <v>196</v>
       </c>
       <c r="B198" s="5">
-        <v>941833522609</v>
-      </c>
-      <c r="C198" s="2">
-        <v>447530</v>
+        <v>148435538238</v>
+      </c>
+      <c r="C198" s="5">
+        <v>887555</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>197</v>
       </c>
       <c r="B199" s="5">
-        <v>805795288554</v>
-      </c>
-      <c r="C199" s="2">
-        <v>299011</v>
+        <v>493187963727</v>
+      </c>
+      <c r="C199" s="5">
+        <v>245195</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>198</v>
       </c>
       <c r="B200" s="5">
-        <v>249648224213</v>
-      </c>
-      <c r="C200" s="2">
-        <v>551517</v>
+        <v>268723271912</v>
+      </c>
+      <c r="C200" s="5">
+        <v>108220</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>199</v>
       </c>
       <c r="B201" s="5">
-        <v>859043085882</v>
-      </c>
-      <c r="C201" s="2">
-        <v>638084</v>
+        <v>125175920839</v>
+      </c>
+      <c r="C201" s="5">
+        <v>287494</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>200</v>
       </c>
       <c r="B202" s="5">
-        <v>703253797583</v>
-      </c>
-      <c r="C202" s="2">
-        <v>728458</v>
+        <v>278058622162</v>
+      </c>
+      <c r="C202" s="5">
+        <v>481620</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>5</v>
